--- a/data/input/absenteeism_data_5.xlsx
+++ b/data/input/absenteeism_data_5.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14563</v>
+        <v>89707</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yago Ferreira</t>
+          <t>Sr. Matheus Santos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45084</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>9184.92</v>
+        <v>8361.719999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22929</v>
+        <v>86022</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rebeca Rodrigues</t>
+          <t>Carolina Pereira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>6174.7</v>
+        <v>12320.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>37309</v>
+        <v>86504</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Bryan Cavalcanti</t>
+          <t>Pedro Lucas Jesus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45081</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>9608.26</v>
+        <v>4238.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10174</v>
+        <v>88438</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alice Moreira</t>
+          <t>Sra. Mirella Nascimento</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>3265.61</v>
+        <v>3330.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65867</v>
+        <v>21566</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isabella Rocha</t>
+          <t>Srta. Laís Pereira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>4619.61</v>
+        <v>4250.35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>44351</v>
+        <v>94764</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Otávio Sales</t>
+          <t>Srta. Bianca Almeida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>11319.29</v>
+        <v>3651.46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38103</v>
+        <v>55288</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Eduarda Alves</t>
+          <t>Srta. Ana Sophia Silveira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45100</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>8416.59</v>
+        <v>8327.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62020</v>
+        <v>65695</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>João Lucas Sales</t>
+          <t>Isabel Souza</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45095</v>
+        <v>45097</v>
       </c>
       <c r="G9" t="n">
-        <v>3758.29</v>
+        <v>10803.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>44923</v>
+        <v>91290</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kamilly Carvalho</t>
+          <t>Thomas Moura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>4111.97</v>
+        <v>3597.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>82665</v>
+        <v>80468</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Davi Luiz das Neves</t>
+          <t>Milena Pereira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45092</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>11300.5</v>
+        <v>10682.54</v>
       </c>
     </row>
   </sheetData>
